--- a/meta/8-1-1.xlsx
+++ b/meta/8-1-1.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22325"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\ЦУР Open Data\Метаданные в Excel для Платформы\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="R:\Метаданные  ЦУР в Excel для Платформы\Метаданные на русском\Глобальные\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81F9A941-080A-4E73-985C-2FF731F78359}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28665" windowHeight="11760"/>
   </bookViews>
   <sheets>
     <sheet name="Пример" sheetId="2" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -125,9 +124,6 @@
   </si>
   <si>
     <t>(0312) 32 46 95</t>
-  </si>
-  <si>
-    <t>www.stat.kg</t>
   </si>
   <si>
     <t>ВВП на душу населения – это номинальный объем, произведенного за определенный промежуток времени валового внутреннего продукта, приходящийся на одного человека.</t>
@@ -185,17 +181,28 @@
   <si>
     <t>Национальная платформа отчётности ЦУР: https://sustainabledevelopment-kyrgyzstan.github.io</t>
   </si>
+  <si>
+    <t>www.stat.gov.kg</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -262,32 +269,36 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
-    <cellStyle name="Обычный 2" xfId="1" xr:uid="{83C4CDB0-A7AA-42C5-8E6B-3B5D22B63D7B}"/>
+    <cellStyle name="Обычный 2" xfId="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -564,11 +575,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B3ACF97-9BA6-4E99-BE02-C8273C44A2B2}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B26"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -604,7 +615,7 @@
       <c r="A4" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="7" t="s">
         <v>28</v>
       </c>
     </row>
@@ -642,7 +653,7 @@
       <c r="A9" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="5" t="s">
+      <c r="B9" s="7" t="s">
         <v>32</v>
       </c>
     </row>
@@ -650,8 +661,8 @@
       <c r="A10" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="5" t="s">
-        <v>33</v>
+      <c r="B10" s="7" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
@@ -665,7 +676,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="119.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -673,7 +684,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="60" customHeight="1" x14ac:dyDescent="0.25">
@@ -681,7 +692,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
@@ -695,7 +706,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="58.15" customHeight="1" x14ac:dyDescent="0.25">
@@ -703,7 +714,7 @@
         <v>16</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -717,7 +728,7 @@
         <v>18</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="195.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -725,7 +736,7 @@
         <v>19</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="58.15" customHeight="1" x14ac:dyDescent="0.25">
@@ -733,7 +744,7 @@
         <v>20</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
@@ -747,7 +758,7 @@
         <v>22</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="58.15" customHeight="1" x14ac:dyDescent="0.25">
@@ -755,7 +766,7 @@
         <v>23</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="25" spans="1:2" ht="58.15" customHeight="1" x14ac:dyDescent="0.25">
@@ -763,7 +774,7 @@
         <v>24</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="26" spans="1:2" ht="58.15" customHeight="1" x14ac:dyDescent="0.25">
@@ -771,7 +782,7 @@
         <v>25</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
   </sheetData>
